--- a/biology/Médecine/David_Uwins/David_Uwins.xlsx
+++ b/biology/Médecine/David_Uwins/David_Uwins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Uwins, né vers 1780 et mort en 1837, est un médecin britannique et écrivain médical.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Londres vers 1780, il est le second fils de Thomas Uwins (mort en 1806), un greffier de la Banque d'Angleterre, et le frère de Thomas Uwins, l'artiste. Après avoir travaillé dans les hôpitaux de Londres, il est diplômé d'un M. D. à l'Université d'Edimbourg le 12 septembre 1803. De retour à Londres, qu'il a occupé pendant un court laps de temps le poste de médecin assistant au dispensaire Finsbury, puis il s'est établi à Aylesbury dans le Buckinghamshire. 
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a publié en 1833, A Treatise on those Disorders of the Brain and Nervous System which are usually considered and called Mental. Cela a établi sa réputation médicale. Il a annoncé ses convictions dans l'homéopathie dans un pamphlet Homœopathy and Allopathy, or Large, Small, and Atomic Doses. Il écrit aussi :
  Modern Medicine, Londres, 1808.
